--- a/old_database/crypto/fastqFiles/fastq_3275.xlsx
+++ b/old_database/crypto/fastqFiles/fastq_3275.xlsx
@@ -46,7 +46,7 @@
     <t>11.2.18</t>
   </si>
   <si>
-    <t>Retrofitted</t>
+    <t>Retrofitted_3275</t>
   </si>
   <si>
     <t>sequence/run_3275_samples/Brent_3275_17-1_GTAC_1_NEB_Universal_TGAGGTT_AGATCTCG_S2_R1_001.fastq.gz</t>
